--- a/dataset/inputdata_hallucination.xlsx
+++ b/dataset/inputdata_hallucination.xlsx
@@ -536,7 +536,7 @@
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>halu_test_res</t>
+          <t>hallucination score</t>
         </is>
       </c>
     </row>
